--- a/Кофигуратор коляски.xlsx
+++ b/Кофигуратор коляски.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7980FA2-8895-43D6-8B2F-46F02F6B01E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89604589-6ACA-4AFE-AF2A-720303CBE9BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вводимые параметры" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="625">
   <si>
     <t xml:space="preserve">Длина </t>
   </si>
@@ -2019,7 +2019,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2084,12 +2084,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2999,6 +2993,11 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3071,19 +3070,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="65">
     <dxf>
       <fill>
         <patternFill>
@@ -3097,180 +3091,6 @@
           <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4031,6 +3851,40 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4157,6 +4011,139 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4171,24 +4158,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{040FAE85-5938-4B73-AF39-78504AC42834}" name="Таблица2" displayName="Таблица2" ref="B1:M251" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{040FAE85-5938-4B73-AF39-78504AC42834}" name="Таблица2" displayName="Таблица2" ref="B1:M251" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="B1:M251" xr:uid="{88EA49A6-2542-4439-A897-DC47FC77FE7A}"/>
   <sortState ref="B2:M228">
     <sortCondition ref="B1:B72"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="8" xr3:uid="{B67F8D58-0A9F-4B4B-8594-6C4204E3395D}" name="Порядковый номер" dataDxfId="60"/>
-    <tableColumn id="1" xr3:uid="{32FA4368-EC15-4C69-AC99-0B411A8523C4}" name="Код" dataDxfId="59"/>
-    <tableColumn id="13" xr3:uid="{99C05F03-9D3A-4203-816C-9AC5860A330E}" name="тип изделия" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{DDD0D7D3-28FC-4C3E-BDB6-24E066172CF7}" name="Обознач" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{C93EDCF0-839A-4413-AE6F-4E49C749F6EC}" name="Наимен" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{90BB4C17-8380-47F8-9778-BCC8E588C574}" name="Полное Наименовнаие" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{BD0C7220-4C28-49C3-82F4-E1BFF0989D81}" name="Кол-во" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{AFFA916D-2391-442B-9215-2D2D2B58729A}" name="Длина " dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{706A98D1-76C5-409C-9F75-2C4D7C927A5E}" name="Высота" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{0DCB8852-19AD-4DE4-8E09-D783C67AA240}" name="Ширина" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{E481B615-36B8-491E-80A0-9BD068E54852}" name="Прим" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{FABF8AEC-3A31-49CA-91B3-0B5F64C6C400}" name="Идёт ли в спецификацию?" dataDxfId="50">
+    <tableColumn id="8" xr3:uid="{B67F8D58-0A9F-4B4B-8594-6C4204E3395D}" name="Порядковый номер" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{32FA4368-EC15-4C69-AC99-0B411A8523C4}" name="Код" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{99C05F03-9D3A-4203-816C-9AC5860A330E}" name="тип изделия" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{DDD0D7D3-28FC-4C3E-BDB6-24E066172CF7}" name="Обознач" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{C93EDCF0-839A-4413-AE6F-4E49C749F6EC}" name="Наимен" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{90BB4C17-8380-47F8-9778-BCC8E588C574}" name="Полное Наименовнаие" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{BD0C7220-4C28-49C3-82F4-E1BFF0989D81}" name="Кол-во" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{AFFA916D-2391-442B-9215-2D2D2B58729A}" name="Длина " dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{706A98D1-76C5-409C-9F75-2C4D7C927A5E}" name="Высота" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{0DCB8852-19AD-4DE4-8E09-D783C67AA240}" name="Ширина" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{E481B615-36B8-491E-80A0-9BD068E54852}" name="Прим" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{FABF8AEC-3A31-49CA-91B3-0B5F64C6C400}" name="Идёт ли в спецификацию?" dataDxfId="29">
       <calculatedColumnFormula>IF(OR(Таблица2[[#This Row],[Код]]=$P$3,Таблица2[[#This Row],[Код]]=$U$3,Таблица2[[#This Row],[Код]]=$Q$3,Таблица2[[#This Row],[Код]]=$S$3,Таблица2[[#This Row],[Код]]=$R$3,Таблица2[[#This Row],[Код]]=$T$3,Таблица2[[#This Row],[Код]]=$T$5,Таблица2[[#This Row],[Код]]=$V$5,Таблица2[[#This Row],[Код]]=$V$3),"da","no")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4197,27 +4184,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F25E84E-BAFA-4FDA-A789-F68A931951FC}" name="Таблица7" displayName="Таблица7" ref="N5:P23" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F25E84E-BAFA-4FDA-A789-F68A931951FC}" name="Таблица7" displayName="Таблица7" ref="N5:P23" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="N5:P23" xr:uid="{65FDB1D2-E833-45DD-A6FD-E587931FD166}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AEDBACD2-BB4A-44E4-BBF7-EF337C79EDB7}" name="Ширина" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{725E87EA-1A38-4108-88E5-59E24F48D977}" name="Фактическое значение" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{AEDBACD2-BB4A-44E4-BBF7-EF337C79EDB7}" name="Ширина" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{725E87EA-1A38-4108-88E5-59E24F48D977}" name="Фактическое значение" dataDxfId="26">
       <calculatedColumnFormula>Таблица7[[#This Row],[Ширина]]-Таблица7[[#This Row],[Зазор]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{701365F1-C08C-4FFF-BAFE-AE9FB2E85534}" name="Зазор" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{701365F1-C08C-4FFF-BAFE-AE9FB2E85534}" name="Зазор" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A160D45-B349-4C9F-A1FB-AAC5A8798F84}" name="Таблица8" displayName="Таблица8" ref="B5:E12" totalsRowShown="0" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A160D45-B349-4C9F-A1FB-AAC5A8798F84}" name="Таблица8" displayName="Таблица8" ref="B5:E12" totalsRowShown="0" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="B5:E12" xr:uid="{02930558-CF92-4603-989B-89DD2417B142}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{84A032DA-B651-438E-BC95-B3EE8DF3F353}" name="Вводимые параметры с 1го листа" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{5D19A7DA-32E9-4A57-84AB-AF155FF65A09}" name="мм" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00C23D6A-4384-4F20-A882-A166C2BDDD69}" name="Ключ" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{56E6A366-D913-4057-A279-E37490BBBF67}" name="Тип коляски" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{84A032DA-B651-438E-BC95-B3EE8DF3F353}" name="Вводимые параметры с 1го листа" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{5D19A7DA-32E9-4A57-84AB-AF155FF65A09}" name="мм" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00C23D6A-4384-4F20-A882-A166C2BDDD69}" name="Ключ" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{56E6A366-D913-4057-A279-E37490BBBF67}" name="Тип коляски" dataDxfId="18">
       <calculatedColumnFormula>INDEX($G$10:G15,MATCH($D$7,$H$10:H15,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4226,30 +4213,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{837AA83B-8EE4-4237-AFCE-9B8786D2EF0D}" name="Таблица9" displayName="Таблица9" ref="R5:T24" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{837AA83B-8EE4-4237-AFCE-9B8786D2EF0D}" name="Таблица9" displayName="Таблица9" ref="R5:T24" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="R5:T24" xr:uid="{FA78E702-16B1-49D5-9A4D-F057A40F8DF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DCE920E7-31E6-41E1-AB23-BFBD64F10372}" name="Номер" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{504B047C-0437-43DF-A193-2447F29782F5}" name="значение" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{784342E4-2F73-4706-A124-2DC461B53B52}" name="Тип коляски" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{DCE920E7-31E6-41E1-AB23-BFBD64F10372}" name="Номер" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{504B047C-0437-43DF-A193-2447F29782F5}" name="значение" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{784342E4-2F73-4706-A124-2DC461B53B52}" name="Тип коляски" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1DC92676-6E85-4A79-B4B8-825148C220BB}" name="Таблица10" displayName="Таблица10" ref="V5:W23" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1DC92676-6E85-4A79-B4B8-825148C220BB}" name="Таблица10" displayName="Таблица10" ref="V5:W23" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="V5:W23" xr:uid="{93828843-C174-41F6-86B5-2D1900C0E5FB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{592CB020-D7E0-4E71-BAEE-D08F69C71994}" name="Тип коляски" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{60425D69-7FAA-47A5-B7C5-6787716D7589}" name="значение" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{592CB020-D7E0-4E71-BAEE-D08F69C71994}" name="Тип коляски" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{60425D69-7FAA-47A5-B7C5-6787716D7589}" name="значение" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{68A1AD7E-E3AD-46C6-96A5-00A306FC9CD5}" name="Таблица11" displayName="Таблица11" ref="Y5:Z50" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{68A1AD7E-E3AD-46C6-96A5-00A306FC9CD5}" name="Таблица11" displayName="Таблица11" ref="Y5:Z50" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="Y5:Z50" xr:uid="{EDC55D79-1055-4351-BCB2-6380B240E786}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D7B11BB1-4D82-481A-9C0B-1E6FEA1DCCD4}" name="Значние"/>
@@ -4260,7 +4247,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{84A22C2A-26EE-459A-9924-F4C2B2218BA6}" name="Таблица12" displayName="Таблица12" ref="AB5:AC57" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{84A22C2A-26EE-459A-9924-F4C2B2218BA6}" name="Таблица12" displayName="Таблица12" ref="AB5:AC57" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="AB5:AC57" xr:uid="{79961702-71A4-4032-B33F-44B5076D465F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AA319271-8669-4B1D-A2BB-70BAB27EA1FA}" name="Значние"/>
@@ -4271,22 +4258,22 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9D638B2-4F6D-4550-BE59-25F1BD9C17F3}" name="Таблица112" displayName="Таблица112" ref="AE5:AF32" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9D638B2-4F6D-4550-BE59-25F1BD9C17F3}" name="Таблица112" displayName="Таблица112" ref="AE5:AF32" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="AE5:AF32" xr:uid="{B19E9530-B6DB-4A6A-83D3-80D1BF43558E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{29D8757A-667A-4D30-9DD4-D4D4ECE4ECD6}" name="Значние"/>
-    <tableColumn id="2" xr3:uid="{EFAE4A26-C595-4EFC-BDFE-1AA666C77FDB}" name="Тип трубки спинки" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{EFAE4A26-C595-4EFC-BDFE-1AA666C77FDB}" name="Тип трубки спинки" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{87C6C428-A58B-4EB2-AFED-D0B59824BF3A}" name="Таблица1124" displayName="Таблица1124" ref="AH5:AI12" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{87C6C428-A58B-4EB2-AFED-D0B59824BF3A}" name="Таблица1124" displayName="Таблица1124" ref="AH5:AI12" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="AH5:AI12" xr:uid="{A5135C6F-F0B3-4749-8F11-8B894C6E8144}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{11C3BE44-1495-4E0A-9EED-F5B85BD09CD4}" name="Значние" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{EB66BD69-8E1F-49C4-BED9-AED7D5D23839}" name="Тип трубки спинки" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{11C3BE44-1495-4E0A-9EED-F5B85BD09CD4}" name="Значние" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EB66BD69-8E1F-49C4-BED9-AED7D5D23839}" name="Тип трубки спинки" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4557,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4596,55 +4583,55 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="122"/>
+      <c r="C3" s="127"/>
     </row>
     <row r="4" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="137"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="134">
         <v>320</v>
       </c>
-      <c r="D5" s="130"/>
+      <c r="D5" s="135"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="127">
+      <c r="C6" s="132">
         <v>410</v>
       </c>
-      <c r="D6" s="128"/>
+      <c r="D6" s="133"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="127">
+      <c r="C7" s="132">
         <v>360</v>
       </c>
-      <c r="D7" s="128"/>
+      <c r="D7" s="133"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="125">
+      <c r="C8" s="130">
         <v>200</v>
       </c>
-      <c r="D8" s="126"/>
+      <c r="D8" s="131"/>
       <c r="K8" s="149" t="s">
         <v>624</v>
       </c>
@@ -4654,10 +4641,10 @@
       <c r="B9" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="125">
+      <c r="C9" s="130">
         <v>350</v>
       </c>
-      <c r="D9" s="126"/>
+      <c r="D9" s="131"/>
       <c r="K9" s="149"/>
       <c r="L9" s="149"/>
       <c r="N9" s="77">
@@ -4669,11 +4656,11 @@
       <c r="B10" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="123" t="str">
+      <c r="C10" s="128" t="str">
         <f>_xlfn.CONCAT(Буфер!E6,"х",Буфер!E7," / тип-",Буфер!D7)</f>
         <v>360х330-370 / тип-4</v>
       </c>
-      <c r="D10" s="124"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="83"/>
       <c r="K10" s="149"/>
       <c r="L10" s="149"/>
@@ -4706,11 +4693,11 @@
       <c r="B13" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="120" t="str">
+      <c r="C13" s="125" t="str">
         <f>'Рама буфер всех чертежей'!$R$5</f>
         <v>ПРЯМЫЕ БАНАНЫ</v>
       </c>
-      <c r="D13" s="121"/>
+      <c r="D13" s="126"/>
       <c r="K13" s="151"/>
       <c r="L13" s="151"/>
     </row>
@@ -4805,20 +4792,20 @@
         <f t="array" ref="D18">IFERROR(INDEX(Таблица2[Прим],SMALL(IF(Таблица2[Идёт ли в спецификацию?]="da",ROW(Таблица2[Идёт ли в спецификацию?])-ROW('Рама буфер всех чертежей'!$M$2)+1),ROW()-ROW($D$14)+1)),"")</f>
         <v>0</v>
       </c>
-      <c r="K18" s="144" t="str">
+      <c r="K18" s="120" t="str">
         <f>'Рама буфер всех чертежей'!T14</f>
         <v>KI.BP.399_Банан 4</v>
       </c>
-      <c r="L18" s="145">
+      <c r="L18" s="121">
         <f>'Рама буфер всех чертежей'!U14</f>
         <v>2</v>
       </c>
-      <c r="M18" s="147"/>
-      <c r="N18" s="144" t="str">
+      <c r="M18" s="123"/>
+      <c r="N18" s="120" t="str">
         <f>'Рама буфер всех чертежей'!W14</f>
         <v>KI.MP.079_Вилка кастора АJ</v>
       </c>
-      <c r="O18" s="145">
+      <c r="O18" s="121">
         <f>'Рама буфер всех чертежей'!X14</f>
         <v>1</v>
       </c>
@@ -4840,16 +4827,16 @@
         <f>'Рама буфер всех чертежей'!T15</f>
         <v>KI.BP.415_Мост сидения прямой 360</v>
       </c>
-      <c r="L19" s="146">
+      <c r="L19" s="122">
         <f>'Рама буфер всех чертежей'!U15</f>
         <v>1</v>
       </c>
-      <c r="M19" s="147"/>
+      <c r="M19" s="123"/>
       <c r="N19" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W15</f>
         <v>KI.MP.079-00M_Вилка кастора АJ</v>
       </c>
-      <c r="O19" s="146">
+      <c r="O19" s="122">
         <f>'Рама буфер всех чертежей'!X15</f>
         <v>1</v>
       </c>
@@ -4871,16 +4858,16 @@
         <f>'Рама буфер всех чертежей'!T16</f>
         <v>KI.BP.414_Вынос осевой трубы 2,4,6</v>
       </c>
-      <c r="L20" s="146">
+      <c r="L20" s="122">
         <f>'Рама буфер всех чертежей'!U16</f>
         <v>2</v>
       </c>
-      <c r="M20" s="147"/>
+      <c r="M20" s="123"/>
       <c r="N20" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W16</f>
         <v>Колесо_Delfi 24''</v>
       </c>
-      <c r="O20" s="146">
+      <c r="O20" s="122">
         <f>'Рама буфер всех чертежей'!X16</f>
         <v>2</v>
       </c>
@@ -4902,16 +4889,16 @@
         <f>'Рама буфер всех чертежей'!T17</f>
         <v>KI.BP.391_Каркас спинки</v>
       </c>
-      <c r="L21" s="146">
+      <c r="L21" s="122">
         <f>'Рама буфер всех чертежей'!U17</f>
         <v>1</v>
       </c>
-      <c r="M21" s="147"/>
+      <c r="M21" s="123"/>
       <c r="N21" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W17</f>
         <v>Грипса_</v>
       </c>
-      <c r="O21" s="146">
+      <c r="O21" s="122">
         <f>'Рама буфер всех чертежей'!X17</f>
         <v>2</v>
       </c>
@@ -4933,16 +4920,16 @@
         <f>'Рама буфер всех чертежей'!T18</f>
         <v>KI.BP.391-00M_Каркас спинки</v>
       </c>
-      <c r="L22" s="146">
+      <c r="L22" s="122">
         <f>'Рама буфер всех чертежей'!U18</f>
         <v>1</v>
       </c>
-      <c r="M22" s="147"/>
+      <c r="M22" s="123"/>
       <c r="N22" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W18</f>
         <v>KI.SA.006_Колесо кастера</v>
       </c>
-      <c r="O22" s="146">
+      <c r="O22" s="122">
         <f>'Рама буфер всех чертежей'!X18</f>
         <v>2</v>
       </c>
@@ -4964,16 +4951,16 @@
         <f>'Рама буфер всех чертежей'!T19</f>
         <v>KI.BP.416_Труба осевая 360</v>
       </c>
-      <c r="L23" s="146">
+      <c r="L23" s="122">
         <f>'Рама буфер всех чертежей'!U19</f>
         <v>1</v>
       </c>
-      <c r="M23" s="147"/>
+      <c r="M23" s="123"/>
       <c r="N23" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W19</f>
         <v>KI.TP.010_Проставка колеса кастора</v>
       </c>
-      <c r="O23" s="146">
+      <c r="O23" s="122">
         <f>'Рама буфер всех чертежей'!X19</f>
         <v>2</v>
       </c>
@@ -4995,16 +4982,16 @@
         <f>'Рама буфер всех чертежей'!T20</f>
         <v>KI.BP.392_Вынос вилки</v>
       </c>
-      <c r="L24" s="146">
+      <c r="L24" s="122">
         <f>'Рама буфер всех чертежей'!U20</f>
         <v>2</v>
       </c>
-      <c r="M24" s="147"/>
+      <c r="M24" s="123"/>
       <c r="N24" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W20</f>
         <v>KI.TP.103_Стакан переднего колеса</v>
       </c>
-      <c r="O24" s="146">
+      <c r="O24" s="122">
         <f>'Рама буфер всех чертежей'!X20</f>
         <v>2</v>
       </c>
@@ -5026,16 +5013,16 @@
         <f>'Рама буфер всех чертежей'!T21</f>
         <v>KI.TP.103_Стакан переднего колеса</v>
       </c>
-      <c r="L25" s="146">
+      <c r="L25" s="122">
         <f>'Рама буфер всех чертежей'!U21</f>
         <v>2</v>
       </c>
-      <c r="M25" s="147"/>
+      <c r="M25" s="123"/>
       <c r="N25" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W21</f>
         <v>KI.TP.020_Ресивер подножки</v>
       </c>
-      <c r="O25" s="146">
+      <c r="O25" s="122">
         <f>'Рама буфер всех чертежей'!X21</f>
         <v>2</v>
       </c>
@@ -5057,16 +5044,16 @@
         <f>'Рама буфер всех чертежей'!T22</f>
         <v>KI.TP.104_Втулка ресивера колеса</v>
       </c>
-      <c r="L26" s="146">
+      <c r="L26" s="122">
         <f>'Рама буфер всех чертежей'!U22</f>
         <v>2</v>
       </c>
-      <c r="M26" s="147"/>
+      <c r="M26" s="123"/>
       <c r="N26" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W22</f>
         <v>KI.TP.106_Стакан D25 L60</v>
       </c>
-      <c r="O26" s="146">
+      <c r="O26" s="122">
         <f>'Рама буфер всех чертежей'!X22</f>
         <v>1</v>
       </c>
@@ -5088,16 +5075,16 @@
         <f>'Рама буфер всех чертежей'!T23</f>
         <v>KI.BP.011_Трубка антиопрокидывателя</v>
       </c>
-      <c r="L27" s="146">
+      <c r="L27" s="122">
         <f>'Рама буфер всех чертежей'!U23</f>
         <v>1</v>
       </c>
-      <c r="M27" s="147"/>
+      <c r="M27" s="123"/>
       <c r="N27" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W23</f>
         <v>KI.TP.075_Стакан антиопрокидывателя</v>
       </c>
-      <c r="O27" s="146">
+      <c r="O27" s="122">
         <f>'Рама буфер всех чертежей'!X23</f>
         <v>2</v>
       </c>
@@ -5119,16 +5106,16 @@
         <f>'Рама буфер всех чертежей'!T24</f>
         <v>KI.BP.327_Рукоятка AJ</v>
       </c>
-      <c r="L28" s="146">
+      <c r="L28" s="122">
         <f>'Рама буфер всех чертежей'!U24</f>
         <v>1</v>
       </c>
-      <c r="M28" s="147"/>
+      <c r="M28" s="123"/>
       <c r="N28" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W24</f>
         <v>KI.MP.084_KI.MP.084_Кронштейн складывания внешний</v>
       </c>
-      <c r="O28" s="146">
+      <c r="O28" s="122">
         <f>'Рама буфер всех чертежей'!X24</f>
         <v>1</v>
       </c>
@@ -5150,16 +5137,16 @@
         <f>'Рама буфер всех чертежей'!T25</f>
         <v>KI.BP.327-00M_Рукоятка AJ</v>
       </c>
-      <c r="L29" s="146">
+      <c r="L29" s="122">
         <f>'Рама буфер всех чертежей'!U25</f>
         <v>1</v>
       </c>
-      <c r="M29" s="147"/>
+      <c r="M29" s="123"/>
       <c r="N29" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W25</f>
         <v>KI.MP.084-00M_KI.MP.084_Кронштейн складывания внешний</v>
       </c>
-      <c r="O29" s="146">
+      <c r="O29" s="122">
         <f>'Рама буфер всех чертежей'!X25</f>
         <v>1</v>
       </c>
@@ -5181,16 +5168,16 @@
         <f>'Рама буфер всех чертежей'!T26</f>
         <v>KI.BP.418_Мост спинки 360</v>
       </c>
-      <c r="L30" s="146">
+      <c r="L30" s="122">
         <f>'Рама буфер всех чертежей'!U26</f>
         <v>1</v>
       </c>
-      <c r="M30" s="147"/>
+      <c r="M30" s="123"/>
       <c r="N30" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W26</f>
         <v>KI.MP.085_Кронштейн складывания внутренний</v>
       </c>
-      <c r="O30" s="146">
+      <c r="O30" s="122">
         <f>'Рама буфер всех чертежей'!X26</f>
         <v>1</v>
       </c>
@@ -5212,16 +5199,16 @@
         <f>'Рама буфер всех чертежей'!T27</f>
         <v>KI.BP.327_Рукоятка AJ</v>
       </c>
-      <c r="L31" s="146">
+      <c r="L31" s="122">
         <f>'Рама буфер всех чертежей'!U27</f>
         <v>1</v>
       </c>
-      <c r="M31" s="147"/>
+      <c r="M31" s="123"/>
       <c r="N31" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W27</f>
         <v>KI.MP.085_Кронштейн складывания внутренний</v>
       </c>
-      <c r="O31" s="146">
+      <c r="O31" s="122">
         <f>'Рама буфер всех чертежей'!X27</f>
         <v>1</v>
       </c>
@@ -5243,16 +5230,16 @@
         <f>'Рама буфер всех чертежей'!T28</f>
         <v>KI.BP.327-00M_Рукоятка AJ</v>
       </c>
-      <c r="L32" s="146">
+      <c r="L32" s="122">
         <f>'Рама буфер всех чертежей'!U28</f>
         <v>1</v>
       </c>
-      <c r="M32" s="147"/>
+      <c r="M32" s="123"/>
       <c r="N32" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W28</f>
         <v>KI.SP.310_Пластина кронштейна</v>
       </c>
-      <c r="O32" s="146">
+      <c r="O32" s="122">
         <f>'Рама буфер всех чертежей'!X28</f>
         <v>1</v>
       </c>
@@ -5274,16 +5261,16 @@
         <f>'Рама буфер всех чертежей'!T29</f>
         <v>?KI.BP.?_Вертикальная трубка спинки 340</v>
       </c>
-      <c r="L33" s="146">
+      <c r="L33" s="122">
         <f>'Рама буфер всех чертежей'!U29</f>
         <v>2</v>
       </c>
-      <c r="M33" s="147"/>
+      <c r="M33" s="123"/>
       <c r="N33" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W29</f>
         <v>KI.SP.310-00M_Пластина кронштейна</v>
       </c>
-      <c r="O33" s="146">
+      <c r="O33" s="122">
         <f>'Рама буфер всех чертежей'!X29</f>
         <v>1</v>
       </c>
@@ -5305,16 +5292,16 @@
         <f>'Рама буфер всех чертежей'!T30</f>
         <v/>
       </c>
-      <c r="L34" s="146" t="str">
+      <c r="L34" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U30</f>
         <v/>
       </c>
-      <c r="M34" s="147"/>
+      <c r="M34" s="123"/>
       <c r="N34" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W30</f>
         <v>K0342.03105_Штифт упорный</v>
       </c>
-      <c r="O34" s="146">
+      <c r="O34" s="122">
         <f>'Рама буфер всех чертежей'!X30</f>
         <v>2</v>
       </c>
@@ -5336,16 +5323,16 @@
         <f>'Рама буфер всех чертежей'!T31</f>
         <v/>
       </c>
-      <c r="L35" s="146" t="str">
+      <c r="L35" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U31</f>
         <v/>
       </c>
-      <c r="M35" s="147"/>
+      <c r="M35" s="123"/>
       <c r="N35" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W31</f>
         <v>_Хомут 25мм в сборе</v>
       </c>
-      <c r="O35" s="146">
+      <c r="O35" s="122">
         <f>'Рама буфер всех чертежей'!X31</f>
         <v>3</v>
       </c>
@@ -5367,16 +5354,16 @@
         <f>'Рама буфер всех чертежей'!T32</f>
         <v/>
       </c>
-      <c r="L36" s="146" t="str">
+      <c r="L36" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U32</f>
         <v/>
       </c>
-      <c r="M36" s="147"/>
+      <c r="M36" s="123"/>
       <c r="N36" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W32</f>
         <v>KI.SA.999_Тормоз в сборе</v>
       </c>
-      <c r="O36" s="146">
+      <c r="O36" s="122">
         <f>'Рама буфер всех чертежей'!X32</f>
         <v>1</v>
       </c>
@@ -5398,16 +5385,16 @@
         <f>'Рама буфер всех чертежей'!T33</f>
         <v/>
       </c>
-      <c r="L37" s="146" t="str">
+      <c r="L37" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U33</f>
         <v/>
       </c>
-      <c r="M37" s="147"/>
+      <c r="M37" s="123"/>
       <c r="N37" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W33</f>
         <v>KI.SA.999-00M_Тормоз в сборе</v>
       </c>
-      <c r="O37" s="146">
+      <c r="O37" s="122">
         <f>'Рама буфер всех чертежей'!X33</f>
         <v>1</v>
       </c>
@@ -5429,16 +5416,16 @@
         <f>'Рама буфер всех чертежей'!T34</f>
         <v/>
       </c>
-      <c r="L38" s="146" t="str">
+      <c r="L38" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U34</f>
         <v/>
       </c>
-      <c r="M38" s="147"/>
+      <c r="M38" s="123"/>
       <c r="N38" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W34</f>
         <v>KI.SA.246_Антиопрокидыватель A2 в сборе</v>
       </c>
-      <c r="O38" s="146">
+      <c r="O38" s="122">
         <f>'Рама буфер всех чертежей'!X34</f>
         <v>1</v>
       </c>
@@ -5460,16 +5447,16 @@
         <f>'Рама буфер всех чертежей'!T35</f>
         <v/>
       </c>
-      <c r="L39" s="146" t="str">
+      <c r="L39" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U35</f>
         <v/>
       </c>
-      <c r="M39" s="147"/>
+      <c r="M39" s="123"/>
       <c r="N39" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W35</f>
         <v>_Пружинная кнопка</v>
       </c>
-      <c r="O39" s="146">
+      <c r="O39" s="122">
         <f>'Рама буфер всех чертежей'!X35</f>
         <v>3</v>
       </c>
@@ -5491,16 +5478,16 @@
         <f>'Рама буфер всех чертежей'!T36</f>
         <v/>
       </c>
-      <c r="L40" s="146" t="str">
+      <c r="L40" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U36</f>
         <v/>
       </c>
-      <c r="M40" s="147"/>
+      <c r="M40" s="123"/>
       <c r="N40" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W36</f>
         <v>KI.TP.107_Проставка D10 L10</v>
       </c>
-      <c r="O40" s="146">
+      <c r="O40" s="122">
         <f>'Рама буфер всех чертежей'!X36</f>
         <v>2</v>
       </c>
@@ -5522,16 +5509,16 @@
         <f>'Рама буфер всех чертежей'!T37</f>
         <v/>
       </c>
-      <c r="L41" s="146" t="str">
+      <c r="L41" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U37</f>
         <v/>
       </c>
-      <c r="M41" s="147"/>
+      <c r="M41" s="123"/>
       <c r="N41" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W37</f>
         <v>KI.TP.008_Проставка D8 L11</v>
       </c>
-      <c r="O41" s="146">
+      <c r="O41" s="122">
         <f>'Рама буфер всех чертежей'!X37</f>
         <v>2</v>
       </c>
@@ -5553,16 +5540,16 @@
         <f>'Рама буфер всех чертежей'!T38</f>
         <v/>
       </c>
-      <c r="L42" s="146" t="str">
+      <c r="L42" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U38</f>
         <v/>
       </c>
-      <c r="M42" s="147"/>
+      <c r="M42" s="123"/>
       <c r="N42" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W38</f>
         <v>_Колесо антиопрокидывателя</v>
       </c>
-      <c r="O42" s="146">
+      <c r="O42" s="122">
         <f>'Рама буфер всех чертежей'!X38</f>
         <v>1</v>
       </c>
@@ -5584,16 +5571,16 @@
         <f>'Рама буфер всех чертежей'!T39</f>
         <v/>
       </c>
-      <c r="L43" s="146" t="str">
+      <c r="L43" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U39</f>
         <v/>
       </c>
-      <c r="M43" s="147"/>
+      <c r="M43" s="123"/>
       <c r="N43" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W39</f>
         <v>KI.TP.112_Проставка крыла</v>
       </c>
-      <c r="O43" s="146">
+      <c r="O43" s="122">
         <f>'Рама буфер всех чертежей'!X39</f>
         <v>6</v>
       </c>
@@ -5615,16 +5602,16 @@
         <f>'Рама буфер всех чертежей'!T40</f>
         <v/>
       </c>
-      <c r="L44" s="146" t="str">
+      <c r="L44" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U40</f>
         <v/>
       </c>
-      <c r="M44" s="147"/>
+      <c r="M44" s="123"/>
       <c r="N44" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W40</f>
         <v>KI.CP.104_Гайка М22х1.5</v>
       </c>
-      <c r="O44" s="146">
+      <c r="O44" s="122">
         <f>'Рама буфер всех чертежей'!X40</f>
         <v>2</v>
       </c>
@@ -5646,16 +5633,16 @@
         <f>'Рама буфер всех чертежей'!T41</f>
         <v/>
       </c>
-      <c r="L45" s="146" t="str">
+      <c r="L45" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U41</f>
         <v/>
       </c>
-      <c r="M45" s="147"/>
+      <c r="M45" s="123"/>
       <c r="N45" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W41</f>
         <v>KI.TP.104_Втулка ресивера колеса</v>
       </c>
-      <c r="O45" s="146">
+      <c r="O45" s="122">
         <f>'Рама буфер всех чертежей'!X41</f>
         <v>2</v>
       </c>
@@ -5677,16 +5664,16 @@
         <f>'Рама буфер всех чертежей'!T42</f>
         <v/>
       </c>
-      <c r="L46" s="146" t="str">
+      <c r="L46" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U42</f>
         <v/>
       </c>
-      <c r="M46" s="147"/>
+      <c r="M46" s="123"/>
       <c r="N46" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W42</f>
         <v>KI.MP.078_Ресивер AJ 3 градусов</v>
       </c>
-      <c r="O46" s="146">
+      <c r="O46" s="122">
         <f>'Рама буфер всех чертежей'!X42</f>
         <v>2</v>
       </c>
@@ -5708,16 +5695,16 @@
         <f>'Рама буфер всех чертежей'!T43</f>
         <v/>
       </c>
-      <c r="L47" s="146" t="str">
+      <c r="L47" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U43</f>
         <v/>
       </c>
-      <c r="M47" s="147"/>
+      <c r="M47" s="123"/>
       <c r="N47" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W43</f>
         <v>KI.TP.102_Проставка крыла 11,5</v>
       </c>
-      <c r="O47" s="146">
+      <c r="O47" s="122">
         <f>'Рама буфер всех чертежей'!X43</f>
         <v>8</v>
       </c>
@@ -5739,16 +5726,16 @@
         <f>'Рама буфер всех чертежей'!T44</f>
         <v/>
       </c>
-      <c r="L48" s="146" t="str">
+      <c r="L48" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U44</f>
         <v/>
       </c>
-      <c r="M48" s="147"/>
+      <c r="M48" s="123"/>
       <c r="N48" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W44</f>
         <v/>
       </c>
-      <c r="O48" s="146" t="str">
+      <c r="O48" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X44</f>
         <v/>
       </c>
@@ -5770,16 +5757,16 @@
         <f>'Рама буфер всех чертежей'!T45</f>
         <v/>
       </c>
-      <c r="L49" s="146" t="str">
+      <c r="L49" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U45</f>
         <v/>
       </c>
-      <c r="M49" s="147"/>
+      <c r="M49" s="123"/>
       <c r="N49" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W45</f>
         <v/>
       </c>
-      <c r="O49" s="146" t="str">
+      <c r="O49" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X45</f>
         <v/>
       </c>
@@ -5801,16 +5788,16 @@
         <f>'Рама буфер всех чертежей'!T46</f>
         <v/>
       </c>
-      <c r="L50" s="146" t="str">
+      <c r="L50" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U46</f>
         <v/>
       </c>
-      <c r="M50" s="147"/>
+      <c r="M50" s="123"/>
       <c r="N50" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W46</f>
         <v/>
       </c>
-      <c r="O50" s="146" t="str">
+      <c r="O50" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X46</f>
         <v/>
       </c>
@@ -5832,16 +5819,16 @@
         <f>'Рама буфер всех чертежей'!T47</f>
         <v/>
       </c>
-      <c r="L51" s="146" t="str">
+      <c r="L51" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U47</f>
         <v/>
       </c>
-      <c r="M51" s="147"/>
+      <c r="M51" s="123"/>
       <c r="N51" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W47</f>
         <v/>
       </c>
-      <c r="O51" s="146" t="str">
+      <c r="O51" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X47</f>
         <v/>
       </c>
@@ -5863,16 +5850,16 @@
         <f>'Рама буфер всех чертежей'!T48</f>
         <v/>
       </c>
-      <c r="L52" s="146" t="str">
+      <c r="L52" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U48</f>
         <v/>
       </c>
-      <c r="M52" s="147"/>
+      <c r="M52" s="123"/>
       <c r="N52" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W48</f>
         <v/>
       </c>
-      <c r="O52" s="146" t="str">
+      <c r="O52" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X48</f>
         <v/>
       </c>
@@ -5894,16 +5881,16 @@
         <f>'Рама буфер всех чертежей'!T49</f>
         <v/>
       </c>
-      <c r="L53" s="146" t="str">
+      <c r="L53" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U49</f>
         <v/>
       </c>
-      <c r="M53" s="147"/>
+      <c r="M53" s="123"/>
       <c r="N53" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W49</f>
         <v/>
       </c>
-      <c r="O53" s="146" t="str">
+      <c r="O53" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X49</f>
         <v/>
       </c>
@@ -5925,16 +5912,16 @@
         <f>'Рама буфер всех чертежей'!T50</f>
         <v/>
       </c>
-      <c r="L54" s="146" t="str">
+      <c r="L54" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U50</f>
         <v/>
       </c>
-      <c r="M54" s="147"/>
+      <c r="M54" s="123"/>
       <c r="N54" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W50</f>
         <v/>
       </c>
-      <c r="O54" s="146" t="str">
+      <c r="O54" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X50</f>
         <v/>
       </c>
@@ -5956,16 +5943,16 @@
         <f>'Рама буфер всех чертежей'!T51</f>
         <v/>
       </c>
-      <c r="L55" s="146" t="str">
+      <c r="L55" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U51</f>
         <v/>
       </c>
-      <c r="M55" s="147"/>
+      <c r="M55" s="123"/>
       <c r="N55" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W51</f>
         <v/>
       </c>
-      <c r="O55" s="146" t="str">
+      <c r="O55" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X51</f>
         <v/>
       </c>
@@ -5985,7 +5972,7 @@
       </c>
       <c r="K56" s="30"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="147"/>
+      <c r="M56" s="123"/>
       <c r="N56" s="30"/>
       <c r="O56" s="6"/>
     </row>
@@ -6002,17 +5989,17 @@
         <f t="array" ref="D57">IFERROR(INDEX(Таблица2[Прим],SMALL(IF(Таблица2[Идёт ли в спецификацию?]="da",ROW(Таблица2[Идёт ли в спецификацию?])-ROW('Рама буфер всех чертежей'!$M$2)+1),ROW()-ROW($D$14)+1)),"")</f>
         <v>0</v>
       </c>
-      <c r="K57" s="148" t="str">
+      <c r="K57" s="124" t="str">
         <f>'Рама буфер всех чертежей'!T53</f>
         <v>Листовой</v>
       </c>
-      <c r="L57" s="148"/>
+      <c r="L57" s="124"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="148" t="str">
+      <c r="N57" s="124" t="str">
         <f>'Рама буфер всех чертежей'!W53</f>
         <v>Пошив</v>
       </c>
-      <c r="O57" s="148"/>
+      <c r="O57" s="124"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="99" t="str">
@@ -6027,20 +6014,20 @@
         <f t="array" ref="D58">IFERROR(INDEX(Таблица2[Прим],SMALL(IF(Таблица2[Идёт ли в спецификацию?]="da",ROW(Таблица2[Идёт ли в спецификацию?])-ROW('Рама буфер всех чертежей'!$M$2)+1),ROW()-ROW($D$14)+1)),"")</f>
         <v>Покупное</v>
       </c>
-      <c r="K58" s="144" t="str">
+      <c r="K58" s="120" t="str">
         <f>'Рама буфер всех чертежей'!T54</f>
         <v>KI.SP.312_Крыло 4</v>
       </c>
-      <c r="L58" s="145">
+      <c r="L58" s="121">
         <f>'Рама буфер всех чертежей'!U54</f>
         <v>2</v>
       </c>
-      <c r="M58" s="147"/>
-      <c r="N58" s="144" t="str">
+      <c r="M58" s="123"/>
+      <c r="N58" s="120" t="str">
         <f>'Рама буфер всех чертежей'!W54</f>
         <v>?KI.BP.?_Тканевая подушка сидения 360-3,4</v>
       </c>
-      <c r="O58" s="145">
+      <c r="O58" s="121">
         <f>'Рама буфер всех чертежей'!X54</f>
         <v>1</v>
       </c>
@@ -6062,16 +6049,16 @@
         <f>'Рама буфер всех чертежей'!T55</f>
         <v>KI.FP.103_Полукрыло A2</v>
       </c>
-      <c r="L59" s="146">
+      <c r="L59" s="122">
         <f>'Рама буфер всех чертежей'!U55</f>
         <v>2</v>
       </c>
-      <c r="M59" s="147"/>
+      <c r="M59" s="123"/>
       <c r="N59" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W55</f>
         <v>?KI.BP.?_Ременная спинка 360x340</v>
       </c>
-      <c r="O59" s="146">
+      <c r="O59" s="122">
         <f>'Рама буфер всех чертежей'!X55</f>
         <v>1</v>
       </c>
@@ -6093,16 +6080,16 @@
         <f>'Рама буфер всех чертежей'!T56</f>
         <v>KI.SP.315_Пластина сидения 360-3,4</v>
       </c>
-      <c r="L60" s="146">
+      <c r="L60" s="122">
         <f>'Рама буфер всех чертежей'!U56</f>
         <v>1</v>
       </c>
-      <c r="M60" s="147"/>
+      <c r="M60" s="123"/>
       <c r="N60" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W56</f>
         <v/>
       </c>
-      <c r="O60" s="146" t="str">
+      <c r="O60" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X56</f>
         <v/>
       </c>
@@ -6124,16 +6111,16 @@
         <f>'Рама буфер всех чертежей'!T57</f>
         <v/>
       </c>
-      <c r="L61" s="146" t="str">
+      <c r="L61" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U57</f>
         <v/>
       </c>
-      <c r="M61" s="147"/>
+      <c r="M61" s="123"/>
       <c r="N61" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W57</f>
         <v/>
       </c>
-      <c r="O61" s="146" t="str">
+      <c r="O61" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X57</f>
         <v/>
       </c>
@@ -6155,16 +6142,16 @@
         <f>'Рама буфер всех чертежей'!T58</f>
         <v/>
       </c>
-      <c r="L62" s="146" t="str">
+      <c r="L62" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U58</f>
         <v/>
       </c>
-      <c r="M62" s="147"/>
+      <c r="M62" s="123"/>
       <c r="N62" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W58</f>
         <v/>
       </c>
-      <c r="O62" s="146" t="str">
+      <c r="O62" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X58</f>
         <v/>
       </c>
@@ -6186,16 +6173,16 @@
         <f>'Рама буфер всех чертежей'!T59</f>
         <v/>
       </c>
-      <c r="L63" s="146" t="str">
+      <c r="L63" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U59</f>
         <v/>
       </c>
-      <c r="M63" s="147"/>
+      <c r="M63" s="123"/>
       <c r="N63" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W59</f>
         <v/>
       </c>
-      <c r="O63" s="146" t="str">
+      <c r="O63" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X59</f>
         <v/>
       </c>
@@ -6217,16 +6204,16 @@
         <f>'Рама буфер всех чертежей'!T60</f>
         <v/>
       </c>
-      <c r="L64" s="146" t="str">
+      <c r="L64" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U60</f>
         <v/>
       </c>
-      <c r="M64" s="147"/>
+      <c r="M64" s="123"/>
       <c r="N64" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W60</f>
         <v/>
       </c>
-      <c r="O64" s="146" t="str">
+      <c r="O64" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X60</f>
         <v/>
       </c>
@@ -6248,16 +6235,16 @@
         <f>'Рама буфер всех чертежей'!T61</f>
         <v/>
       </c>
-      <c r="L65" s="146" t="str">
+      <c r="L65" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U61</f>
         <v/>
       </c>
-      <c r="M65" s="147"/>
+      <c r="M65" s="123"/>
       <c r="N65" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W61</f>
         <v/>
       </c>
-      <c r="O65" s="146" t="str">
+      <c r="O65" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X61</f>
         <v/>
       </c>
@@ -6279,16 +6266,16 @@
         <f>'Рама буфер всех чертежей'!T62</f>
         <v/>
       </c>
-      <c r="L66" s="146" t="str">
+      <c r="L66" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U62</f>
         <v/>
       </c>
-      <c r="M66" s="147"/>
+      <c r="M66" s="123"/>
       <c r="N66" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W62</f>
         <v/>
       </c>
-      <c r="O66" s="146" t="str">
+      <c r="O66" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X62</f>
         <v/>
       </c>
@@ -6310,16 +6297,16 @@
         <f>'Рама буфер всех чертежей'!T63</f>
         <v/>
       </c>
-      <c r="L67" s="146" t="str">
+      <c r="L67" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U63</f>
         <v/>
       </c>
-      <c r="M67" s="147"/>
+      <c r="M67" s="123"/>
       <c r="N67" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W63</f>
         <v/>
       </c>
-      <c r="O67" s="146" t="str">
+      <c r="O67" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X63</f>
         <v/>
       </c>
@@ -6341,16 +6328,16 @@
         <f>'Рама буфер всех чертежей'!T64</f>
         <v/>
       </c>
-      <c r="L68" s="146" t="str">
+      <c r="L68" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U64</f>
         <v/>
       </c>
-      <c r="M68" s="147"/>
+      <c r="M68" s="123"/>
       <c r="N68" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W64</f>
         <v/>
       </c>
-      <c r="O68" s="146" t="str">
+      <c r="O68" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X64</f>
         <v/>
       </c>
@@ -6372,16 +6359,16 @@
         <f>'Рама буфер всех чертежей'!T65</f>
         <v/>
       </c>
-      <c r="L69" s="146" t="str">
+      <c r="L69" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U65</f>
         <v/>
       </c>
-      <c r="M69" s="147"/>
+      <c r="M69" s="123"/>
       <c r="N69" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W65</f>
         <v/>
       </c>
-      <c r="O69" s="146" t="str">
+      <c r="O69" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X65</f>
         <v/>
       </c>
@@ -6403,16 +6390,16 @@
         <f>'Рама буфер всех чертежей'!T66</f>
         <v/>
       </c>
-      <c r="L70" s="146" t="str">
+      <c r="L70" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U66</f>
         <v/>
       </c>
-      <c r="M70" s="147"/>
+      <c r="M70" s="123"/>
       <c r="N70" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W66</f>
         <v/>
       </c>
-      <c r="O70" s="146" t="str">
+      <c r="O70" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X66</f>
         <v/>
       </c>
@@ -6434,16 +6421,16 @@
         <f>'Рама буфер всех чертежей'!T67</f>
         <v/>
       </c>
-      <c r="L71" s="146" t="str">
+      <c r="L71" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U67</f>
         <v/>
       </c>
-      <c r="M71" s="147"/>
+      <c r="M71" s="123"/>
       <c r="N71" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W67</f>
         <v/>
       </c>
-      <c r="O71" s="146" t="str">
+      <c r="O71" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X67</f>
         <v/>
       </c>
@@ -6465,16 +6452,16 @@
         <f>'Рама буфер всех чертежей'!T68</f>
         <v/>
       </c>
-      <c r="L72" s="146" t="str">
+      <c r="L72" s="122" t="str">
         <f>'Рама буфер всех чертежей'!U68</f>
         <v/>
       </c>
-      <c r="M72" s="147"/>
+      <c r="M72" s="123"/>
       <c r="N72" s="33" t="str">
         <f>'Рама буфер всех чертежей'!W68</f>
         <v/>
       </c>
-      <c r="O72" s="146" t="str">
+      <c r="O72" s="122" t="str">
         <f>'Рама буфер всех чертежей'!X68</f>
         <v/>
       </c>
@@ -6500,7 +6487,7 @@
         <f>'Рама буфер всех чертежей'!U69</f>
         <v/>
       </c>
-      <c r="M73" s="147"/>
+      <c r="M73" s="123"/>
       <c r="N73" s="30" t="str">
         <f>'Рама буфер всех чертежей'!W69</f>
         <v/>
@@ -6971,12 +6958,12 @@
     <mergeCell ref="C9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="?ki.bp.?">
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="?ki.bp.?">
       <formula>NOT(ISERROR(SEARCH("?ki.bp.?",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:O73">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",K16)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6989,7 +6976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F28907E-3F53-4659-A4CC-75F2D6AA2359}">
   <dimension ref="B1:X251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P231" sqref="P231"/>
     </sheetView>
   </sheetViews>
@@ -7094,7 +7081,7 @@
         <f>IF(OR(Таблица2[[#This Row],[Код]]=$P$3,Таблица2[[#This Row],[Код]]=$U$3,Таблица2[[#This Row],[Код]]=$Q$3,Таблица2[[#This Row],[Код]]=$S$3,Таблица2[[#This Row],[Код]]=$R$3,Таблица2[[#This Row],[Код]]=$T$3,Таблица2[[#This Row],[Код]]=$T$5,Таблица2[[#This Row],[Код]]=$V$5,Таблица2[[#This Row],[Код]]=$V$3),"da","no")</f>
         <v>no</v>
       </c>
-      <c r="O2" s="133" t="s">
+      <c r="O2" s="138" t="s">
         <v>93</v>
       </c>
       <c r="P2" s="13" t="s">
@@ -7156,7 +7143,7 @@
         <f>IF(OR(Таблица2[[#This Row],[Код]]=$P$3,Таблица2[[#This Row],[Код]]=$U$3,Таблица2[[#This Row],[Код]]=$Q$3,Таблица2[[#This Row],[Код]]=$S$3,Таблица2[[#This Row],[Код]]=$R$3,Таблица2[[#This Row],[Код]]=$T$3,Таблица2[[#This Row],[Код]]=$T$5,Таблица2[[#This Row],[Код]]=$V$5,Таблица2[[#This Row],[Код]]=$V$3),"da","no")</f>
         <v>no</v>
       </c>
-      <c r="O3" s="133"/>
+      <c r="O3" s="138"/>
       <c r="P3" s="92">
         <f>IF($P$5="yes",(_xlfn.CONCAT($Q$5,"-01")),$Q$5)</f>
         <v>4</v>
@@ -7222,7 +7209,7 @@
         <f>IF(OR(Таблица2[[#This Row],[Код]]=$P$3,Таблица2[[#This Row],[Код]]=$U$3,Таблица2[[#This Row],[Код]]=$Q$3,Таблица2[[#This Row],[Код]]=$S$3,Таблица2[[#This Row],[Код]]=$R$3,Таблица2[[#This Row],[Код]]=$T$3,Таблица2[[#This Row],[Код]]=$T$5,Таблица2[[#This Row],[Код]]=$V$5,Таблица2[[#This Row],[Код]]=$V$3),"da","no")</f>
         <v>no</v>
       </c>
-      <c r="O4" s="133"/>
+      <c r="O4" s="138"/>
       <c r="P4" s="13" t="s">
         <v>95</v>
       </c>
@@ -7282,7 +7269,7 @@
         <f>IF(OR(Таблица2[[#This Row],[Код]]=$P$3,Таблица2[[#This Row],[Код]]=$U$3,Таблица2[[#This Row],[Код]]=$Q$3,Таблица2[[#This Row],[Код]]=$S$3,Таблица2[[#This Row],[Код]]=$R$3,Таблица2[[#This Row],[Код]]=$T$3,Таблица2[[#This Row],[Код]]=$T$5,Таблица2[[#This Row],[Код]]=$V$5,Таблица2[[#This Row],[Код]]=$V$3),"da","no")</f>
         <v>no</v>
       </c>
-      <c r="O5" s="133"/>
+      <c r="O5" s="138"/>
       <c r="P5" s="94" t="str">
         <f>IF(OR($S$3=270,$S$3=300,$S$3=390,$S$3=420),"yes","no")</f>
         <v>no</v>
@@ -16575,87 +16562,87 @@
     <mergeCell ref="O2:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="E52:E55 E65:E72 E74:E82 E97:E126 E84:E95 E1:E50 E128 E130:E151 E236:E1048576">
-    <cfRule type="containsText" dxfId="18" priority="28" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="62" priority="28" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="61" priority="23" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="60" priority="19" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E62">
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="59" priority="20" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="57" priority="16" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="54" priority="10" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152:E235">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",E152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="?KI.BP.?">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="?KI.BP.?">
       <formula>NOT(ISERROR(SEARCH("?KI.BP.?",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16713,56 +16700,56 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:35" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="59"/>
       <c r="G4" s="58"/>
-      <c r="H4" s="134" t="s">
+      <c r="H4" s="139" t="s">
         <v>259</v>
       </c>
-      <c r="I4" s="135"/>
+      <c r="I4" s="140"/>
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
-      <c r="N4" s="139" t="s">
+      <c r="N4" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
       <c r="Q4" s="85"/>
-      <c r="R4" s="134" t="s">
+      <c r="R4" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="141"/>
-      <c r="T4" s="135"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="140"/>
       <c r="U4" s="85"/>
-      <c r="V4" s="134" t="s">
+      <c r="V4" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="W4" s="135"/>
+      <c r="W4" s="140"/>
       <c r="X4" s="85"/>
-      <c r="Y4" s="134" t="s">
+      <c r="Y4" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="Z4" s="135"/>
+      <c r="Z4" s="140"/>
       <c r="AA4" s="85"/>
-      <c r="AB4" s="139" t="s">
+      <c r="AB4" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="AC4" s="139"/>
+      <c r="AC4" s="144"/>
       <c r="AD4" s="85"/>
-      <c r="AE4" s="134" t="s">
+      <c r="AE4" s="139" t="s">
         <v>248</v>
       </c>
-      <c r="AF4" s="135"/>
-      <c r="AH4" s="134" t="s">
+      <c r="AF4" s="140"/>
+      <c r="AH4" s="139" t="s">
         <v>258</v>
       </c>
-      <c r="AI4" s="135"/>
+      <c r="AI4" s="140"/>
     </row>
     <row r="5" spans="2:35" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="38" t="s">
@@ -17087,11 +17074,11 @@
       <c r="D9" s="42"/>
       <c r="E9" s="10"/>
       <c r="F9" s="58"/>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
       <c r="N9" s="7">
         <v>300</v>
       </c>
@@ -18812,10 +18799,10 @@
     </row>
     <row r="24" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="143"/>
+      <c r="D25" s="148"/>
       <c r="E25" s="19">
         <v>1</v>
       </c>
